--- a/ToDoListReport.xlsx
+++ b/ToDoListReport.xlsx
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Display data</t>
   </si>
   <si>
+    <t xml:space="preserve">Validate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Save</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate</t>
   </si>
 </sst>
 </file>
@@ -222,10 +222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,7 +251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
@@ -268,7 +268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
@@ -281,7 +281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
@@ -294,45 +294,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>1</v>
@@ -342,10 +338,14 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>1</v>
@@ -355,15 +355,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
@@ -371,7 +369,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -386,7 +384,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -399,16 +397,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
@@ -420,14 +418,14 @@
         <v>15.5</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
